--- a/projects/Python/PythonTables/excelFile.xlsx
+++ b/projects/Python/PythonTables/excelFile.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A8D061-9FE6-4985-A7F5-2310F8CDE407}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C83FD0-54C4-4182-8485-79E28653A097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21000" yWindow="2355" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -343,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,7 +365,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -372,7 +373,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -380,7 +381,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -388,10 +389,139 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-9</v>
+      </c>
+      <c r="B13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-8</v>
+      </c>
+      <c r="B14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-7</v>
+      </c>
+      <c r="B15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-6</v>
+      </c>
+      <c r="B16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-5</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-4</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-3</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-2</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>